--- a/test.xlsx
+++ b/test.xlsx
@@ -22,24 +22,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">ilteris.ninja</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">onedio.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eksisozluk.com</t>
   </si>
   <si>
     <t xml:space="preserve">eleventhsoftware.com</t>
   </si>
   <si>
-    <t xml:space="preserve">alperen.ninja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uguryuce.me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manisaeczaciodasi.org.tr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanalmagaza.com.tr</t>
+    <t xml:space="preserve">twitter.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">google.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yemeksepeti.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amazon.com</t>
   </si>
 </sst>
 </file>
@@ -49,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -71,13 +77,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,75 +121,78 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -205,7 +207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -215,7 +217,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -228,7 +233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -238,7 +243,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
